--- a/tests/testthat/fixtures/metadata/metadata_BEXSTA_large.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_BEXSTA_large.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/672a29ec829a16e8/Dokumenter/GitHub/ProjCore/px/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AD039892-EA16-4891-A771-3B7D9E4407A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52C15D07-5689-402D-A07E-D2FF3CE48265}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56AC80-E282-4E98-88A7-F9E8D0D3C336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="31800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables_MD" sheetId="1" r:id="rId1"/>
@@ -451,18 +451,6 @@
     <t>Statistics Greenland</t>
   </si>
   <si>
-    <t>SUBJECT_CODE</t>
-  </si>
-  <si>
-    <t>SUBJECT_AREA_da</t>
-  </si>
-  <si>
-    <t>SUBJECT_AREA_en</t>
-  </si>
-  <si>
-    <t>SUBJECT_AREA_kl</t>
-  </si>
-  <si>
     <t>DESCRIPTION_da</t>
   </si>
   <si>
@@ -472,15 +460,6 @@
     <t>DESCRIPTION_kl</t>
   </si>
   <si>
-    <t>CREATION_DATE</t>
-  </si>
-  <si>
-    <t>UPDATE_FREQUENCY</t>
-  </si>
-  <si>
-    <t>NEXT_UPDATE</t>
-  </si>
-  <si>
     <t>LINK_da</t>
   </si>
   <si>
@@ -778,9 +757,6 @@
     <t>CHARSET</t>
   </si>
   <si>
-    <t>AXIS_VERSION</t>
-  </si>
-  <si>
     <t>LANGUAGE</t>
   </si>
   <si>
@@ -796,9 +772,6 @@
     <t>MATRIX</t>
   </si>
   <si>
-    <t>LAST_UPDATED</t>
-  </si>
-  <si>
     <t>BEXSTATEST2</t>
   </si>
   <si>
@@ -815,6 +788,33 @@
   </si>
   <si>
     <t>ANSI</t>
+  </si>
+  <si>
+    <t>SUBJECT-CODE</t>
+  </si>
+  <si>
+    <t>CREATION-DATE</t>
+  </si>
+  <si>
+    <t>UPDATE-FREQUENCY</t>
+  </si>
+  <si>
+    <t>LAST-UPDATED</t>
+  </si>
+  <si>
+    <t>NEXT-UPDATE</t>
+  </si>
+  <si>
+    <t>AXIS-VERSION</t>
+  </si>
+  <si>
+    <t>SUBJECT-AREA_en</t>
+  </si>
+  <si>
+    <t>SUBJECT-AREA_kl</t>
+  </si>
+  <si>
+    <t>SUBJECT-AREA_da</t>
   </si>
 </sst>
 </file>
@@ -875,7 +875,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Link 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1219,7 +1219,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="5" width="30" customWidth="1"/>
@@ -1229,7 +1229,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1276,19 +1276,19 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -1303,22 +1303,22 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1332,10 +1332,10 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1367,31 +1367,31 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="L4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
@@ -1405,19 +1405,19 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
         <v>172</v>
-      </c>
-      <c r="C5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" t="s">
-        <v>179</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -1432,13 +1432,13 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="L5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
@@ -1452,19 +1452,19 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -1479,13 +1479,13 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="L6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M6" t="s">
         <v>15</v>
@@ -1499,22 +1499,22 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -1551,7 +1551,7 @@
       <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1579,12 +1579,12 @@
         <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B33">
         <v>31</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B36">
         <v>34</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B37">
         <v>35</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B38">
         <v>36</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B39">
         <v>37</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B40">
         <v>38</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B41">
         <v>39</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B43">
         <v>41</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B44">
         <v>42</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B45">
         <v>43</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B46">
         <v>44</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B47">
         <v>45</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B49">
         <v>47</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B50">
         <v>48</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B51">
         <v>49</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B53">
         <v>51</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B54">
         <v>52</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B55">
         <v>53</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B56">
         <v>54</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B57">
         <v>55</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B58">
         <v>56</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B59">
         <v>57</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B62">
         <v>60</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B64">
         <v>62</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B65">
         <v>63</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B66">
         <v>64</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B67">
         <v>65</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B68">
         <v>66</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B69">
         <v>67</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B70">
         <v>68</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B71">
         <v>69</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B72">
         <v>70</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B74">
         <v>72</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B75">
         <v>73</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B76">
         <v>74</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B77">
         <v>75</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B78">
         <v>76</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B79">
         <v>77</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B80">
         <v>78</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B81">
         <v>79</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B82">
         <v>80</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B83">
         <v>81</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B84">
         <v>82</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B85">
         <v>83</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B86">
         <v>84</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B87">
         <v>85</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B88">
         <v>86</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B89">
         <v>87</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B90">
         <v>88</v>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B91">
         <v>89</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B92">
         <v>90</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B93">
         <v>91</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B94">
         <v>92</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B95">
         <v>93</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B96">
         <v>94</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B97">
         <v>95</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B98">
         <v>96</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B99">
         <v>97</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B100">
         <v>98</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B101">
         <v>99</v>
@@ -3584,27 +3584,27 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D102" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E102" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F102" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3613,18 +3613,18 @@
         <v>123</v>
       </c>
       <c r="D103" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E103" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F103" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -3633,233 +3633,233 @@
         <v>124</v>
       </c>
       <c r="D104" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E104" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F104" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D105" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E105" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F105" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D106" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E106" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F106" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B107">
         <v>2</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D107" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E107" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F107" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D108" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E108" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F108" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D109" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E109" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F109" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B110">
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D110" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B111">
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D111" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E111" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D112" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B113">
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D113" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E113" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B114">
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D114" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E114" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B115">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D115" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3872,10 +3872,10 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -3891,15 +3891,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B3" s="4">
         <v>2000</v>
@@ -3907,26 +3907,26 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1">
@@ -3934,7 +3934,7 @@
         <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4027,95 +4027,95 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4131,26 +4131,26 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4169,7 +4169,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5">
